--- a/Yolk hormones/Yolk CORT/delicata_yolk_hormone.xlsx
+++ b/Yolk hormones/Yolk CORT/delicata_yolk_hormone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U1115575\Documents\lampro_cort_temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U1115575\Documents\lampro_cort_temp\Yolk hormones\Yolk CORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E529A7F-F2DA-4EAC-82A7-C5EA37A5D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AA2CB8-C0B5-4EBA-B641-6259B2A6765A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1230" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{1F4C1761-69C6-4866-96E8-673082E2F564}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1F4C1761-69C6-4866-96E8-673082E2F564}"/>
   </bookViews>
   <sheets>
     <sheet name="All hormone treatments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="CORT Plate data for publication" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,6 +39,42 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5E86FCB1-A097-4937-BB8D-4778565DB161}</author>
+    <author>tc={BBC4CC75-A33C-47D6-ACBF-E5A8E9F1BCC3}</author>
+    <author>tc={EC6A2E4E-AAF2-4FF9-8C5D-282A41467868}</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{5E86FCB1-A097-4937-BB8D-4778565DB161}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Value from assay</t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{BBC4CC75-A33C-47D6-ACBF-E5A8E9F1BCC3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The amount the sample was diluted before the assay</t>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="2" shapeId="0" xr:uid="{EC6A2E4E-AAF2-4FF9-8C5D-282A41467868}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    mass of egg yolk</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={8F73C118-8D89-4AA1-8C0C-D7FEE1E74F98}</author>
@@ -85,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="501">
   <si>
     <t>dissection_id</t>
   </si>
@@ -1582,6 +1617,12 @@
   </si>
   <si>
     <t>average EE</t>
+  </si>
+  <si>
+    <t>raw_T4(ng/ml)</t>
+  </si>
+  <si>
+    <t>T1</t>
   </si>
 </sst>
 </file>
@@ -1592,13 +1633,19 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1683,7 +1730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1761,6 +1808,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2084,6 +2137,20 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N1" dT="2022-09-05T06:10:02.79" personId="{CEEBB0EB-627E-4798-97F6-F2C91AB19EAE}" id="{5E86FCB1-A097-4937-BB8D-4778565DB161}">
+    <text>Value from assay</text>
+  </threadedComment>
+  <threadedComment ref="O1" dT="2022-09-05T06:10:49.67" personId="{CEEBB0EB-627E-4798-97F6-F2C91AB19EAE}" id="{BBC4CC75-A33C-47D6-ACBF-E5A8E9F1BCC3}">
+    <text>The amount the sample was diluted before the assay</text>
+  </threadedComment>
+  <threadedComment ref="P1" dT="2022-09-06T03:56:20.60" personId="{CEEBB0EB-627E-4798-97F6-F2C91AB19EAE}" id="{EC6A2E4E-AAF2-4FF9-8C5D-282A41467868}">
+    <text>mass of egg yolk</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="O1" dT="2022-09-05T06:10:02.79" personId="{CEEBB0EB-627E-4798-97F6-F2C91AB19EAE}" id="{8F73C118-8D89-4AA1-8C0C-D7FEE1E74F98}">
     <text>Value from assay</text>
   </threadedComment>
@@ -2104,9 +2171,9 @@
   <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="L179" sqref="L179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7861,16 +7928,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332874F0-8884-4AEA-B3CF-966A6F04E564}">
-  <dimension ref="A1:M56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332874F0-8884-4AEA-B3CF-966A6F04E564}">
+  <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="22" width="8.7265625" style="36"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7904,11 +7974,29 @@
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>262</v>
       </c>
@@ -7940,11 +8028,33 @@
       <c r="L2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="12">
+        <v>823.721</v>
+      </c>
+      <c r="O2" s="36">
+        <v>4</v>
+      </c>
+      <c r="P2" s="36">
+        <f>J2/600</f>
+        <v>0.24509833333333333</v>
+      </c>
+      <c r="Q2" s="36">
+        <f>P2*1000</f>
+        <v>245.09833333333333</v>
+      </c>
+      <c r="R2" s="36">
+        <f>Q2/O2</f>
+        <v>61.274583333333332</v>
+      </c>
+      <c r="S2" s="14">
+        <f>N2/R2</f>
+        <v>13.443110588267295</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>261</v>
       </c>
@@ -7978,11 +8088,11 @@
       <c r="L3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>263</v>
       </c>
@@ -8016,11 +8126,11 @@
       <c r="L4" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>265</v>
       </c>
@@ -8054,11 +8164,11 @@
       <c r="L5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>266</v>
       </c>
@@ -8092,11 +8202,11 @@
       <c r="L6" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>267</v>
       </c>
@@ -8128,11 +8238,11 @@
       <c r="L7" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>270</v>
       </c>
@@ -8166,11 +8276,11 @@
       <c r="L8" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>272</v>
       </c>
@@ -8204,11 +8314,11 @@
       <c r="L9" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>274</v>
       </c>
@@ -8242,11 +8352,11 @@
       <c r="L10" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>276</v>
       </c>
@@ -8280,11 +8390,11 @@
       <c r="L11" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>278</v>
       </c>
@@ -8318,11 +8428,11 @@
       <c r="L12" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>280</v>
       </c>
@@ -8356,11 +8466,11 @@
       <c r="L13" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>282</v>
       </c>
@@ -8394,11 +8504,11 @@
       <c r="L14" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>284</v>
       </c>
@@ -8432,11 +8542,11 @@
       <c r="L15" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>286</v>
       </c>
@@ -8470,11 +8580,11 @@
       <c r="L16" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>288</v>
       </c>
@@ -8508,11 +8618,11 @@
       <c r="L17" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>290</v>
       </c>
@@ -8546,11 +8656,11 @@
       <c r="L18" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>292</v>
       </c>
@@ -8584,11 +8694,11 @@
       <c r="L19" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>294</v>
       </c>
@@ -8622,11 +8732,11 @@
       <c r="L20" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>296</v>
       </c>
@@ -8660,11 +8770,11 @@
       <c r="L21" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>298</v>
       </c>
@@ -8698,11 +8808,11 @@
       <c r="L22" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>300</v>
       </c>
@@ -8736,11 +8846,11 @@
       <c r="L23" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>302</v>
       </c>
@@ -8774,11 +8884,11 @@
       <c r="L24" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="W24" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>304</v>
       </c>
@@ -8812,11 +8922,11 @@
       <c r="L25" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="W25" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>183</v>
       </c>
@@ -8850,11 +8960,11 @@
       <c r="L26" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="W26" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>185</v>
       </c>
@@ -8888,11 +8998,11 @@
       <c r="L27" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="W27" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>187</v>
       </c>
@@ -8926,11 +9036,11 @@
       <c r="L28" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>189</v>
       </c>
@@ -8964,11 +9074,11 @@
       <c r="L29" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="W29" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>191</v>
       </c>
@@ -9002,11 +9112,11 @@
       <c r="L30" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="W30" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>193</v>
       </c>
@@ -9040,11 +9150,11 @@
       <c r="L31" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="W31" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>195</v>
       </c>
@@ -9078,11 +9188,11 @@
       <c r="L32" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="W32" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>197</v>
       </c>
@@ -9116,11 +9226,11 @@
       <c r="L33" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="W33" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>199</v>
       </c>
@@ -9154,11 +9264,11 @@
       <c r="L34" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="W34" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>201</v>
       </c>
@@ -9192,11 +9302,11 @@
       <c r="L35" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="W35" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>203</v>
       </c>
@@ -9230,11 +9340,11 @@
       <c r="L36" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="W36" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>205</v>
       </c>
@@ -9268,11 +9378,11 @@
       <c r="L37" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="W37" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>207</v>
       </c>
@@ -9306,11 +9416,11 @@
       <c r="L38" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="W38" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>209</v>
       </c>
@@ -9344,11 +9454,11 @@
       <c r="L39" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="W39" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>211</v>
       </c>
@@ -9382,11 +9492,11 @@
       <c r="L40" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="W40" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>213</v>
       </c>
@@ -9420,11 +9530,11 @@
       <c r="L41" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="W41" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>201</v>
       </c>
@@ -9458,11 +9568,11 @@
       <c r="L42" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="W42" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>216</v>
       </c>
@@ -9496,11 +9606,11 @@
       <c r="L43" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="W43" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>218</v>
       </c>
@@ -9534,11 +9644,11 @@
       <c r="L44" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="W44" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>220</v>
       </c>
@@ -9572,11 +9682,11 @@
       <c r="L45" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="W45" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>222</v>
       </c>
@@ -9610,11 +9720,11 @@
       <c r="L46" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="W46" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>224</v>
       </c>
@@ -9648,11 +9758,11 @@
       <c r="L47" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="W47" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>226</v>
       </c>
@@ -9686,11 +9796,11 @@
       <c r="L48" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="W48" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>228</v>
       </c>
@@ -9724,11 +9834,11 @@
       <c r="L49" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="W49" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>230</v>
       </c>
@@ -9762,11 +9872,11 @@
       <c r="L50" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="W50" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>232</v>
       </c>
@@ -9800,11 +9910,11 @@
       <c r="L51" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="W51" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>234</v>
       </c>
@@ -9838,11 +9948,11 @@
       <c r="L52" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="W52" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>236</v>
       </c>
@@ -9876,11 +9986,11 @@
       <c r="L53" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="W53" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>238</v>
       </c>
@@ -9914,11 +10024,11 @@
       <c r="L54" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="W54" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>240</v>
       </c>
@@ -9952,11 +10062,11 @@
       <c r="L55" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="W55" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>242</v>
       </c>
@@ -9990,12 +10100,13 @@
       <c r="L56" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="W56" s="1" t="s">
         <v>260</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10003,9 +10114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDD0115-DA01-49C1-8B6F-D4677B704F3A}">
   <dimension ref="A1:BN320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y13" sqref="Y13"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16413,10 +16524,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCEBB37-5C4F-4703-9E0B-1B3BC065394F}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16516,6 +16627,24 @@
       <c r="E5" s="36">
         <f>(B5-C5)/1000</f>
         <v>0.18444899999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B6" s="38">
+        <v>2.8220000000000001</v>
+      </c>
+      <c r="C6" s="39">
+        <v>1.56</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f>(B6-C6)/D6</f>
+        <v>0.25240000000000001</v>
       </c>
     </row>
   </sheetData>
